--- a/data_base/emails.xlsx
+++ b/data_base/emails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agathabarros/projects/Python_Projects/indicator_automation/data_base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agathabarros/projects/Python_Projects/indicator_automation_git/data_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E348BF-3ED0-144A-A1AC-70E359B6BB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4177474E-19E9-6A46-ABC3-7843F1A90437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="500" windowWidth="23240" windowHeight="13160" xr2:uid="{EE9D8D8A-F7B1-481B-B9DF-10FF6CFE8B3E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>E-mail</t>
   </si>
@@ -171,66 +171,6 @@
     <t>Maria Luiza</t>
   </si>
   <si>
-    <t>Diretoria</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+helena@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+alice@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+laura@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+manuela@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+valentina@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+sophia@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+isabella@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+luiza@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+lorena@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+miguel@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+arthur@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+heitor@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+bernardo@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+davi@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+lorenzo@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+gabriel@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+pedro@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+benjamin@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+diretoria@gmail.com</t>
-  </si>
-  <si>
     <t>Heloisa</t>
   </si>
   <si>
@@ -249,31 +189,19 @@
     <t>Theo</t>
   </si>
   <si>
-    <t>pythonimpressionador+heloisa@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+julia@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+livia@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+cecilia@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+eloa@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+theo@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+maria_luiza@gmail.com</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
     <t>Store</t>
+  </si>
+  <si>
+    <t>agathabarros@hotmail.com</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>agathabarros1_1@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -638,7 +566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D81E77-7AEF-4DB7-8688-DEDDD091CFFB}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -648,10 +578,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -665,7 +595,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -677,7 +607,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -689,7 +619,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -700,7 +630,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -711,7 +641,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -722,7 +652,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -733,7 +663,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -741,10 +671,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -755,7 +685,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -763,10 +693,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -777,7 +707,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -785,10 +715,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -799,7 +729,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -807,10 +737,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -818,10 +748,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -843,7 +773,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -854,7 +784,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -865,7 +795,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -876,7 +806,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -884,10 +814,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -898,7 +828,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -909,7 +839,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -920,7 +850,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -931,48 +861,25 @@
         <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{71E13B65-9239-473E-B00B-24152BE46E62}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E3106FEB-106F-4653-B503-E2D2031143F8}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{B6EBA633-9A57-4B4B-96B4-C65CFAD1BB3E}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{7823E53E-AF09-484D-A82D-90E56D3B173C}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{3741F77C-FA16-4C22-B015-4FDF829B5647}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{E0868D17-25A2-487B-AA15-484F6B02EBA7}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{B6F8659F-A0CB-412D-AE6A-9DA852BFAA32}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{4CFCBEB2-A644-4E59-9788-1DDF09FAF464}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{38F81A3D-BB76-4DBF-B55C-183FC4B858A7}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{98973E91-31EC-40FD-86B0-ED8A4168C6E8}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{03A322C5-0A08-4680-8550-E77955A4AE16}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{E5CB0419-824E-4DB2-A37A-D3C4C77E1115}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{59E0BF81-A494-4E83-8798-A91BEBA8D604}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{ACE724F6-B50F-4C54-BEB0-05F796CEB518}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{97ADDF58-A02A-4AB6-92C6-A696B385AA7C}"/>
-    <hyperlink ref="C18" r:id="rId16" xr:uid="{468AA824-B854-4C50-AE64-62AB564D2BC8}"/>
-    <hyperlink ref="C19" r:id="rId17" xr:uid="{D68730A0-9B08-47EA-B08B-D9AF34A604C6}"/>
-    <hyperlink ref="C20" r:id="rId18" xr:uid="{DC9B9350-B3A1-42F7-AC7F-FA19215DAC1C}"/>
-    <hyperlink ref="C21" r:id="rId19" xr:uid="{2B72A44B-E3AB-4DC9-843D-E086A5935BBD}"/>
-    <hyperlink ref="C22" r:id="rId20" xr:uid="{86DE27C8-7A8B-4539-BDDF-78A25128E590}"/>
-    <hyperlink ref="C23" r:id="rId21" xr:uid="{DA1C7256-28A5-4CC6-B93E-1D00A4600C54}"/>
-    <hyperlink ref="C24" r:id="rId22" xr:uid="{4218CF6B-06BF-4E28-B5ED-DB65662FB86F}"/>
-    <hyperlink ref="C25" r:id="rId23" xr:uid="{AFD4FC21-C827-47BB-A10B-8F182A528B87}"/>
-    <hyperlink ref="C26" r:id="rId24" xr:uid="{A077F048-53D0-4C90-9D38-4531C608CEEB}"/>
-    <hyperlink ref="C27" r:id="rId25" xr:uid="{9146DF61-FD66-4AC6-8767-2D00EC98E736}"/>
-    <hyperlink ref="C14" r:id="rId26" xr:uid="{5FFD0C79-EDBB-417E-98DA-5E77D27BBC40}"/>
+    <hyperlink ref="C26" r:id="rId2" xr:uid="{54AC8B3A-C7CC-C84F-907C-8BA462664EE2}"/>
+    <hyperlink ref="C3:C25" r:id="rId3" display="agathabarros1_1@hotmail.com" xr:uid="{506A8E6B-7AE1-F84E-9C96-F0E09C3CB7E8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data_base/emails.xlsx
+++ b/data_base/emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agathabarros/projects/Python_Projects/indicator_automation_git/data_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4177474E-19E9-6A46-ABC3-7843F1A90437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EB21E0-11AE-9747-AC6D-1FA0F0591706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="500" windowWidth="23240" windowHeight="13160" xr2:uid="{EE9D8D8A-F7B1-481B-B9DF-10FF6CFE8B3E}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -619,7 +619,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{71E13B65-9239-473E-B00B-24152BE46E62}"/>
     <hyperlink ref="C26" r:id="rId2" xr:uid="{54AC8B3A-C7CC-C84F-907C-8BA462664EE2}"/>
-    <hyperlink ref="C3:C25" r:id="rId3" display="agathabarros1_1@hotmail.com" xr:uid="{506A8E6B-7AE1-F84E-9C96-F0E09C3CB7E8}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{9A1BCF10-3A58-3A4E-8F6B-1639DE0D6E1C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
